--- a/marksheet.xlsx
+++ b/marksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chama\Documents\Angular\urms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A788353E-E68C-48C2-91EE-C2923E2C8451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB5677-3938-4522-9E28-49D4032B4013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{1DC1846A-3C2C-4BE5-B839-D883E7F7DCB3}"/>
   </bookViews>
@@ -573,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3717FAFA-7F7D-4990-8457-9C861C0B2271}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,27 +618,27 @@
       </c>
       <c r="C2">
         <f t="shared" ref="C2:G2" ca="1" si="0">RANDBETWEEN(0,16)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <f ca="1">SUM(B2:G2)</f>
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -651,27 +651,27 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="E3">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H30" ca="1" si="2">SUM(B3:G3)</f>
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -680,31 +680,31 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -713,31 +713,31 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -746,31 +746,31 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -779,23 +779,23 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
@@ -803,7 +803,7 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -812,31 +812,31 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -845,31 +845,31 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -878,31 +878,31 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -911,31 +911,31 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -948,27 +948,27 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -977,31 +977,31 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1010,31 +1010,31 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1043,15 +1043,15 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
@@ -1059,15 +1059,15 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1076,31 +1076,31 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1109,31 +1109,31 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1142,31 +1142,31 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1175,31 +1175,31 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
-      </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1208,31 +1208,31 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1241,11 +1241,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="1"/>
@@ -1253,19 +1253,19 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1274,31 +1274,31 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1307,31 +1307,31 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1340,31 +1340,31 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1377,27 +1377,27 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1406,31 +1406,31 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1439,31 +1439,31 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1472,31 +1472,31 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1505,31 +1505,31 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1538,31 +1538,31 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1571,31 +1571,31 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <f t="shared" ref="H31:H42" ca="1" si="3">SUM(B31:G31)</f>
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1608,27 +1608,27 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
       <c r="F32">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1637,31 +1637,31 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1670,15 +1670,15 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
@@ -1686,15 +1686,15 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1703,31 +1703,31 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="C35">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1736,31 +1736,31 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -1769,19 +1769,19 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
@@ -1789,11 +1789,11 @@
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -1802,27 +1802,27 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="3"/>
@@ -1835,31 +1835,31 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -1868,31 +1868,31 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -1901,31 +1901,31 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -1934,31 +1934,31 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="4"/>
         <v>14</v>
       </c>
-      <c r="C42">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
       <c r="F42">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1971,11 +1971,11 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
@@ -1983,15 +1983,15 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43:H53" ca="1" si="5">SUM(B43:G43)</f>
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2004,27 +2004,27 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="4"/>
         <v>15</v>
-      </c>
-      <c r="D44">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="E44">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -2033,31 +2033,31 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="5"/>
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2066,31 +2066,31 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2099,31 +2099,31 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2132,31 +2132,31 @@
       </c>
       <c r="B48">
         <f t="shared" ref="B48:G53" ca="1" si="6">RANDBETWEEN(0,16)</f>
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
-      <c r="C48">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
       <c r="D48">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2165,31 +2165,31 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
-      <c r="D49">
-        <f t="shared" ca="1" si="6"/>
-        <v>5</v>
-      </c>
       <c r="E49">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -2198,31 +2198,31 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="6"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2231,31 +2231,31 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2264,31 +2264,31 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2297,31 +2297,31 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
